--- a/data/georgia_census/shida-qartli/xashuri/average_wages.xlsx
+++ b/data/georgia_census/shida-qartli/xashuri/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC27E01-765B-4696-8AF7-EA9154497012}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A985B1E1-3593-47FE-9DEF-9FCA04E5B684}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3C86AB5-9EA1-417C-8107-FEC6EC2B9535}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73EA3608-DE5A-4CF6-92E9-D6AE355547E7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101D9E98-1D3B-4B59-850B-2A9796F07CE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9DC659E-1CB3-4D64-A574-8BEB2C1AE1FE}"/>
 </file>